--- a/ЧЯ-для задач.xlsx
+++ b/ЧЯ-для задач.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Документы\HSE\Практика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289D830B-9F47-4130-B3C9-380C0C483108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C5C00E-69D2-4D60-8946-5F3BD5252E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Задача 5" sheetId="1" r:id="rId1"/>
+    <sheet name="Задача 3" sheetId="2" r:id="rId1"/>
+    <sheet name="Задача 5" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>Тесты</t>
   </si>
@@ -63,6 +64,9 @@
   </si>
   <si>
     <t>Т3</t>
+  </si>
+  <si>
+    <t>Т4</t>
   </si>
   <si>
     <t>1. Количество отриц. чисел в строке</t>
@@ -126,6 +130,85 @@
   </si>
   <si>
     <t>Задача 5</t>
+  </si>
+  <si>
+    <t>1. Значение X</t>
+  </si>
+  <si>
+    <t>1.1 Равен нулю</t>
+  </si>
+  <si>
+    <t>1.2 Единица</t>
+  </si>
+  <si>
+    <t>1.3 Больше единицы</t>
+  </si>
+  <si>
+    <t>2. Значение Y</t>
+  </si>
+  <si>
+    <t>2.1 Равен нулю</t>
+  </si>
+  <si>
+    <t>2.2 Единица</t>
+  </si>
+  <si>
+    <t>2.3 Больше единицы</t>
+  </si>
+  <si>
+    <t>3. Принадлежность графику</t>
+  </si>
+  <si>
+    <t>3.1 Принадлежит выделенной области</t>
+  </si>
+  <si>
+    <t>3.2 Не принадлежит выделенной области</t>
+  </si>
+  <si>
+    <t>3.3 Точка лежит на границе графика</t>
+  </si>
+  <si>
+    <t>x = 0
+y = 0</t>
+  </si>
+  <si>
+    <t>Точка (0, 0) принадлежит графику</t>
+  </si>
+  <si>
+    <t>1.1, 2.1, 3.1, 3.3</t>
+  </si>
+  <si>
+    <t>x = 1
+y = 1</t>
+  </si>
+  <si>
+    <t>Точка (1, 1) принадлежит графику</t>
+  </si>
+  <si>
+    <t>1.2, 2.2, 3.1, 3.3</t>
+  </si>
+  <si>
+    <t>x = 2
+y = 0</t>
+  </si>
+  <si>
+    <t>Точка (2, 0) не принадлежит графику</t>
+  </si>
+  <si>
+    <t>1.3, 2.1, 3.2</t>
+  </si>
+  <si>
+    <t>x = -1
+y = 2</t>
+  </si>
+  <si>
+    <t>Точка (-2, 2) принадлежит графику</t>
+  </si>
+  <si>
+    <t>2.3, 3.1</t>
+  </si>
+  <si>
+    <t>Задача 3</t>
   </si>
 </sst>
 </file>
@@ -229,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -278,6 +361,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,11 +696,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD52A86A-E272-462E-91E5-9C389B92B574}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="17"/>
+    <col min="3" max="3" width="17.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="17"/>
+    <col min="6" max="6" width="18.28515625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="F15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G13:J13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D16A06-A25E-471A-978A-7D823266F289}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +996,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -658,13 +1043,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>6</v>
@@ -688,16 +1073,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
@@ -712,46 +1097,46 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F7" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F8" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F9" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
@@ -759,38 +1144,38 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F10" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F11" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F12" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ЧЯ-для задач.xlsx
+++ b/ЧЯ-для задач.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Документы\HSE\Практика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C5C00E-69D2-4D60-8946-5F3BD5252E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C47003-B19C-4F6D-9024-1E2511DB2D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 3" sheetId="2" r:id="rId1"/>
     <sheet name="Задача 5" sheetId="1" r:id="rId2"/>
+    <sheet name="Задача 6" sheetId="3" r:id="rId3"/>
+    <sheet name="Задача 6 Доп." sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
   <si>
     <t>Тесты</t>
   </si>
@@ -209,13 +211,175 @@
   </si>
   <si>
     <t>Задача 3</t>
+  </si>
+  <si>
+    <t>1. Количество вычисляемых значений</t>
+  </si>
+  <si>
+    <t>1.1 0 значений</t>
+  </si>
+  <si>
+    <t>1.2 1 значение</t>
+  </si>
+  <si>
+    <t>1.3 Больше 1 значения</t>
+  </si>
+  <si>
+    <t>2. Изначальные элементы последовательности</t>
+  </si>
+  <si>
+    <t>2.1 Нет отрицательных чисел</t>
+  </si>
+  <si>
+    <t>2.2 1 отрицательное число</t>
+  </si>
+  <si>
+    <t>3. Наличие элементов, равных M</t>
+  </si>
+  <si>
+    <t>3.1 Нет элементов</t>
+  </si>
+  <si>
+    <t>3.2 1 элемент</t>
+  </si>
+  <si>
+    <t>3.3 Больше 1 элемента</t>
+  </si>
+  <si>
+    <t>4. Вывод</t>
+  </si>
+  <si>
+    <t>4.1 Числовая последовательность</t>
+  </si>
+  <si>
+    <t>4.2 "Введите целое число больше 0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изнач. элементы: 1 2 3
+Количество вычисл. значений: 0
+</t>
+  </si>
+  <si>
+    <t>"Введите целое число больше 0"</t>
+  </si>
+  <si>
+    <t>1.1, 4.2</t>
+  </si>
+  <si>
+    <t>Изнач. элементы: 1 2 3
+Количество вычисл. значений: 0
+Число M: 1</t>
+  </si>
+  <si>
+    <t>Последовательность:
+1
+Номера элементов, которые равны M:
+1
+Количество чисел равных M равно: 1</t>
+  </si>
+  <si>
+    <t>1.2, 2.1, 3.2, 4.1</t>
+  </si>
+  <si>
+    <t>2.3 Больше 1 отриц. значения</t>
+  </si>
+  <si>
+    <t>Изнач. элементы: -1 -1 -4
+Количество вычисл. значений: 5
+Число M: -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Последовательность:                                                                                                     -1 -1 -4 -7,33333333333333 -11,6666666666667                                                                            Номера элементов, которые равны M:                                                                                      1 2                                                                                                                     Количество чисел равных M равно: 2    </t>
+  </si>
+  <si>
+    <t>1.3, 2.3, 3.3, 4.1</t>
+  </si>
+  <si>
+    <t>4.3 Чисел равных M нет.</t>
+  </si>
+  <si>
+    <t>Изнач. элементы: -1 2 3
+Количество вычисл. значений: 5
+Число M: 0</t>
+  </si>
+  <si>
+    <t>Последовательность:
+-1 2 3 0,666666666666667 7,66666666666667
+Номера элементов, которые равны M:
+Чисел равных M нет.</t>
+  </si>
+  <si>
+    <t>1.3, 2.2, 3.1, 4.1, 4.3</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 6.66, 13.66</t>
+  </si>
+  <si>
+    <t>1. Последовательность</t>
+  </si>
+  <si>
+    <t>1.1 Не монотонная</t>
+  </si>
+  <si>
+    <t>1.2 Строго возрастающая</t>
+  </si>
+  <si>
+    <t>1.3 Строго убывающая</t>
+  </si>
+  <si>
+    <t>1.4 Нестрого возрастающая</t>
+  </si>
+  <si>
+    <t>1.5 Нестрого убывающая</t>
+  </si>
+  <si>
+    <t>Числовая последовательность монотонная строго возрастающая</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, -2, 3, 5.3, 0.33  </t>
+  </si>
+  <si>
+    <t>Числовая последовательность не монотонная.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 1, 2, 5.3, 9 </t>
+  </si>
+  <si>
+    <t>Числовая последовательность монотонная нестрого возрастающая</t>
+  </si>
+  <si>
+    <t>-1, -1, -3, -6.33, -10,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Числовая последовательность монотонная нестрого убывающая. </t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>-1, -2, -3, -6,66, -13,66</t>
+  </si>
+  <si>
+    <t>Т5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Числовая последовательность монотонная строго убывающая. </t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +392,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -312,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -347,6 +518,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -356,32 +557,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,33 +882,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD52A86A-E272-462E-91E5-9C389B92B574}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="17"/>
-    <col min="3" max="3" width="17.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="17"/>
-    <col min="6" max="6" width="18.28515625" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="2" width="9.140625" style="14"/>
+    <col min="3" max="3" width="17.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="14"/>
+    <col min="6" max="6" width="18.28515625" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -757,12 +940,12 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -795,7 +978,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -810,13 +993,13 @@
       <c r="F5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -831,15 +1014,15 @@
       <c r="F6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="G6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -848,71 +1031,71 @@
       <c r="C7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="F8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="18"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="18"/>
+      <c r="G10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -920,23 +1103,23 @@
       <c r="F13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="F14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19" t="s">
+      <c r="G14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -944,25 +1127,25 @@
       <c r="F15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="18"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="F16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="G16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -995,17 +1178,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1028,11 +1211,11 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -1078,15 +1261,15 @@
       <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -1102,7 +1285,7 @@
       <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1138,9 +1321,9 @@
       <c r="F9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F10" s="11" t="s">
@@ -1187,4 +1370,504 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89262EDD-B82B-4031-80F4-0000B0C3BDB0}">
+  <dimension ref="A2:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="23.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13"/>
+    <col min="6" max="6" width="21.28515625" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G17:J17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CF058D-2E6B-445B-AC54-AD1258B43EBE}">
+  <dimension ref="A3:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="16.140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13"/>
+    <col min="6" max="6" width="26.42578125" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G5:K5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ЧЯ-для задач.xlsx
+++ b/ЧЯ-для задач.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Документы\HSE\Практика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C47003-B19C-4F6D-9024-1E2511DB2D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F0C653-00BE-4CF7-91C8-204787EABCE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 3" sheetId="2" r:id="rId1"/>
     <sheet name="Задача 5" sheetId="1" r:id="rId2"/>
     <sheet name="Задача 6" sheetId="3" r:id="rId3"/>
     <sheet name="Задача 6 Доп." sheetId="4" r:id="rId4"/>
+    <sheet name="Задача 7" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
   <si>
     <t>Тесты</t>
   </si>
@@ -373,6 +374,94 @@
   </si>
   <si>
     <t>1.3</t>
+  </si>
+  <si>
+    <t>1. Количество длин кодовых длин</t>
+  </si>
+  <si>
+    <t>1.1 0 кодовых длин.</t>
+  </si>
+  <si>
+    <t>1.2 1 кодовая длина</t>
+  </si>
+  <si>
+    <t>1.3 &gt;1 кодовой длины.</t>
+  </si>
+  <si>
+    <t>2. Количество повторений длин</t>
+  </si>
+  <si>
+    <t>2.1 Количество повторений равно 0</t>
+  </si>
+  <si>
+    <t>2.2 Количество повторений равно 1</t>
+  </si>
+  <si>
+    <t>2.3 Количество повторений &gt; 1</t>
+  </si>
+  <si>
+    <t>3. Неравенство Макмиллана</t>
+  </si>
+  <si>
+    <t>3.1 Выполняется</t>
+  </si>
+  <si>
+    <t>3.2 Не выполняется</t>
+  </si>
+  <si>
+    <t>4.1 Кодовые слова</t>
+  </si>
+  <si>
+    <t>4.2 Неравенство Макмиллана не выполняется</t>
+  </si>
+  <si>
+    <t>4.3 Набор пуст</t>
+  </si>
+  <si>
+    <t>Количество длин кодовых слов: 0</t>
+  </si>
+  <si>
+    <t>1.1, 4.3</t>
+  </si>
+  <si>
+    <t>Количество длин кодовых слов: 1
+Длины слов: 3</t>
+  </si>
+  <si>
+    <t>1.2, 2.1, 3.1, 4.1</t>
+  </si>
+  <si>
+    <t>baa</t>
+  </si>
+  <si>
+    <t>Количество длин кодовых слов: 4
+Длины слов: 3, 2, 2, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab ba baa ca </t>
+  </si>
+  <si>
+    <t>1.3, 2.3. 3.1, 4.1</t>
+  </si>
+  <si>
+    <t>Количество длин кодовых слов: 4
+Длины слов: 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Невозможно построить, поскольку не выполняется неравенство Макмиллана.  </t>
+  </si>
+  <si>
+    <t>1.3, 2.3. 3.2, 4.2</t>
+  </si>
+  <si>
+    <t>Количество длин кодовых слов: 2
+Длины слов: 1, 1</t>
+  </si>
+  <si>
+    <t>b c</t>
+  </si>
+  <si>
+    <t>1.3, 2.2,  3.2, 4.2</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1466,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J4"/>
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CF058D-2E6B-445B-AC54-AD1258B43EBE}">
   <dimension ref="A3:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,4 +1959,326 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919006A6-65C3-4425-8636-9DC29672600E}">
+  <dimension ref="A2:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="16.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13"/>
+    <col min="6" max="6" width="16.140625" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F13" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="6:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="F18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G16:K16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ЧЯ-для задач.xlsx
+++ b/ЧЯ-для задач.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Документы\HSE\Практика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F0C653-00BE-4CF7-91C8-204787EABCE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31778532-2880-433E-B5B8-4E1A12949CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 3" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Задача 6" sheetId="3" r:id="rId3"/>
     <sheet name="Задача 6 Доп." sheetId="4" r:id="rId4"/>
     <sheet name="Задача 7" sheetId="5" r:id="rId5"/>
+    <sheet name="Задача 11" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="152">
   <si>
     <t>Тесты</t>
   </si>
@@ -462,6 +463,66 @@
   </si>
   <si>
     <t>1.3, 2.2,  3.2, 4.2</t>
+  </si>
+  <si>
+    <t>1.1 1 повторение.</t>
+  </si>
+  <si>
+    <t>1.2 Все повторяются.</t>
+  </si>
+  <si>
+    <t>2. Расположение триплетов с ошибками</t>
+  </si>
+  <si>
+    <t>2.2 В центре</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Количество элементов в последовательности </t>
+  </si>
+  <si>
+    <t>3.3 &gt;1 элемента</t>
+  </si>
+  <si>
+    <t>1. Количество повторений в триплете</t>
+  </si>
+  <si>
+    <t>1 1 1 1 0 1 0 1 0</t>
+  </si>
+  <si>
+    <t>1 1 0</t>
+  </si>
+  <si>
+    <t>Ваш массив пуст</t>
+  </si>
+  <si>
+    <t>Исключение: в последовательности недостает чисел</t>
+  </si>
+  <si>
+    <t>4.1 Последовательность</t>
+  </si>
+  <si>
+    <t>4.2 Ваш массив пуст</t>
+  </si>
+  <si>
+    <t>4.3 Исключение: в последовательности недостает чисел</t>
+  </si>
+  <si>
+    <t>3.1, 4.2</t>
+  </si>
+  <si>
+    <t>3.2, 4.3</t>
+  </si>
+  <si>
+    <t>1.1, 1.2,2.2, 2.3, 3.3, 4.1</t>
+  </si>
+  <si>
+    <t>1 0 1 1 0 1 0 1 0</t>
+  </si>
+  <si>
+    <t>1, 1, 0</t>
+  </si>
+  <si>
+    <t>1.1, 2.1, 2.2, 2.3, 3.3, 4.1</t>
   </si>
 </sst>
 </file>
@@ -572,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -626,6 +687,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -647,12 +720,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -986,18 +1053,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1029,12 +1096,12 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -1082,10 +1149,10 @@
       <c r="F5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
@@ -1148,10 +1215,10 @@
       <c r="F9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="11" t="s">
@@ -1192,10 +1259,10 @@
       <c r="F13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="F14" s="11" t="s">
@@ -1267,17 +1334,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1300,11 +1367,11 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -1356,9 +1423,9 @@
       <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -1410,9 +1477,9 @@
       <c r="F9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F10" s="11" t="s">
@@ -1501,12 +1568,12 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -1553,10 +1620,10 @@
       <c r="F5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1621,10 +1688,10 @@
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="F10" s="11" t="s">
@@ -1705,10 +1772,10 @@
       <c r="F17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="6:10" ht="30" x14ac:dyDescent="0.25">
       <c r="F18" s="11" t="s">
@@ -1793,13 +1860,13 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -1843,17 +1910,17 @@
       <c r="C5" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1865,7 +1932,7 @@
       <c r="C6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="19" t="s">
         <v>98</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1889,7 +1956,7 @@
       <c r="C7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="19" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1913,7 +1980,7 @@
       <c r="C8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="19" t="s">
         <v>103</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1965,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919006A6-65C3-4425-8636-9DC29672600E}">
   <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,13 +2068,13 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -2054,14 +2121,14 @@
       <c r="D5" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -2140,14 +2207,14 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="F10" s="5" t="s">
@@ -2188,7 +2255,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="20" t="s">
         <v>112</v>
       </c>
       <c r="G13" s="5"/>
@@ -2224,14 +2291,14 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="6:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
@@ -2281,4 +2348,290 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF064FA-89BA-4DD1-9A4A-67E0AF5D3A50}">
+  <dimension ref="A3:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="13.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="18"/>
+    <col min="6" max="6" width="22" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="F8" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="F12" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="6:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F19" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G16:J16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ЧЯ-для задач.xlsx
+++ b/ЧЯ-для задач.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Документы\HSE\Практика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31778532-2880-433E-B5B8-4E1A12949CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE43C28-D154-4554-8908-8B15498EB820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 3" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Задача 6 Доп." sheetId="4" r:id="rId4"/>
     <sheet name="Задача 7" sheetId="5" r:id="rId5"/>
     <sheet name="Задача 11" sheetId="6" r:id="rId6"/>
+    <sheet name="Задача 10" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="171">
   <si>
     <t>Тесты</t>
   </si>
@@ -523,6 +524,63 @@
   </si>
   <si>
     <t>1.1, 2.1, 2.2, 2.3, 3.3, 4.1</t>
+  </si>
+  <si>
+    <t>1. Количество элементов в дереве</t>
+  </si>
+  <si>
+    <t>1.1 0 элементов</t>
+  </si>
+  <si>
+    <t>1.2 1 элемент</t>
+  </si>
+  <si>
+    <t>1.3 &gt;1 элемента</t>
+  </si>
+  <si>
+    <t>2. Максимальный элемент</t>
+  </si>
+  <si>
+    <t>2.1 Макс. элемент в начале</t>
+  </si>
+  <si>
+    <t>2.2 Макс. элемент в середине</t>
+  </si>
+  <si>
+    <t>2.3 Макс. элемент в конце</t>
+  </si>
+  <si>
+    <t>Создание дерева с корнем без ссылок на другие ветви</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                           1-&lt;                                                                                                                                                                                                                                          Максимальное значение дерева: 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                 3-&lt;                                                                                                                  2-&lt;                                                                                                                        4-&lt;                                                                                                               1-&lt;                                                                                                                           6-&lt;                                                                                                                  5-&lt;                                                                                                                        7-&lt;                                                                                                                                                                                                                                    Максимальное значение дерева: 7  </t>
+  </si>
+  <si>
+    <t>1.3, 2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                 3-&lt;                                                                                                                  2-&lt;                                                                                                                        4-&lt;                                                                                                               20-&lt;                                                                                                                          6-&lt;                                                                                                                  5-&lt;                                                                                                                        7-&lt;                                                                                                                                                                                                                                    Максимальное значение дерева: 20  </t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7</t>
+  </si>
+  <si>
+    <t>20, 2, 3, 4, 5, 6, 7</t>
+  </si>
+  <si>
+    <t>1.3, 2.2</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 20, 5, 6, 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                 3-&lt;                                                                                                                  2-&lt;                                                                                                                        20-&lt;                                                                                                              1-&lt;                                                                                                                           6-&lt;                                                                                                                  5-&lt;                                                                                                                        7-&lt;                                                                                                                                                                                                                                    Максимальное значение дерева: 20    </t>
+  </si>
+  <si>
+    <t>1.3, 2.1</t>
   </si>
 </sst>
 </file>
@@ -633,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -699,6 +757,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -720,6 +784,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1053,18 +1123,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1096,12 +1166,12 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -1149,10 +1219,10 @@
       <c r="F5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
@@ -1215,10 +1285,10 @@
       <c r="F9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="11" t="s">
@@ -1259,10 +1329,10 @@
       <c r="F13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="F14" s="11" t="s">
@@ -1334,17 +1404,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1367,11 +1437,11 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -1423,9 +1493,9 @@
       <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -1477,9 +1547,9 @@
       <c r="F9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F10" s="11" t="s">
@@ -1568,12 +1638,12 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -1620,10 +1690,10 @@
       <c r="F5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1688,10 +1758,10 @@
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="F10" s="11" t="s">
@@ -1772,10 +1842,10 @@
       <c r="F17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="6:10" ht="30" x14ac:dyDescent="0.25">
       <c r="F18" s="11" t="s">
@@ -1860,13 +1930,13 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -1916,11 +1986,11 @@
       <c r="F5" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -2068,13 +2138,13 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -2124,11 +2194,11 @@
       <c r="F5" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -2210,11 +2280,11 @@
       <c r="F9" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="F10" s="5" t="s">
@@ -2294,11 +2364,11 @@
       <c r="F16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="6:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
@@ -2354,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF064FA-89BA-4DD1-9A4A-67E0AF5D3A50}">
   <dimension ref="A3:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,12 +2455,12 @@
       <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2437,10 +2507,10 @@
       <c r="F5" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -2494,10 +2564,10 @@
       <c r="F8" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" s="5" t="s">
@@ -2540,10 +2610,10 @@
       <c r="F12" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" s="5" t="s">
@@ -2584,10 +2654,10 @@
       <c r="F16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="6:10" ht="30" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
@@ -2634,4 +2704,231 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D105EB-477B-4D77-939A-88C707235F88}">
+  <dimension ref="A3:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="22"/>
+    <col min="3" max="3" width="30.28515625" style="22" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="22"/>
+    <col min="6" max="6" width="15.28515625" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="33"/>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G9:K9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ЧЯ-для задач.xlsx
+++ b/ЧЯ-для задач.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Документы\HSE\Практика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE43C28-D154-4554-8908-8B15498EB820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5710D983-9DBE-44A2-B324-CE000B5530BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 3" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Задача 7" sheetId="5" r:id="rId5"/>
     <sheet name="Задача 11" sheetId="6" r:id="rId6"/>
     <sheet name="Задача 10" sheetId="7" r:id="rId7"/>
+    <sheet name="Задача 12" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="191">
   <si>
     <t>Тесты</t>
   </si>
@@ -581,6 +582,66 @@
   </si>
   <si>
     <t>1.3, 2.1</t>
+  </si>
+  <si>
+    <t>1. Типы чисел в массиве</t>
+  </si>
+  <si>
+    <t>1.1 Положительные</t>
+  </si>
+  <si>
+    <t>1.2 Отрицательные</t>
+  </si>
+  <si>
+    <t>1.3 Смешанный</t>
+  </si>
+  <si>
+    <t>2. Упорядоченность в массиве</t>
+  </si>
+  <si>
+    <t>2.1 Неупорядочено</t>
+  </si>
+  <si>
+    <t>2.2 По возрастанию</t>
+  </si>
+  <si>
+    <t>2.3 По убыванию</t>
+  </si>
+  <si>
+    <t>3. Метод сортировки</t>
+  </si>
+  <si>
+    <t>3.1 Простыми вставками</t>
+  </si>
+  <si>
+    <t>3.2 Простым выбором</t>
+  </si>
+  <si>
+    <t>3.3 Подсчётом</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10</t>
+  </si>
+  <si>
+    <t>-1, -2, -3, -4, -5, -6, -7, -8, -9, -10</t>
+  </si>
+  <si>
+    <t>-10, -9, -8, -7, -6, -5, -4, -3, -2, -1</t>
+  </si>
+  <si>
+    <t>1.1, 2.2, 3.1, 3.2, 3.3</t>
+  </si>
+  <si>
+    <t>1.2, 2.3, 3.1, 3.2, 3.3</t>
+  </si>
+  <si>
+    <t>1, -2, 3, 4, 5, -7, 12, 0, 13</t>
+  </si>
+  <si>
+    <t>-7, -2, 0, 1, 3, 4, 5, 12, 13</t>
+  </si>
+  <si>
+    <t>1.3, 2.1, 3.1, 3.2, 3.3</t>
   </si>
 </sst>
 </file>
@@ -691,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -763,6 +824,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -786,11 +859,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,18 +1193,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1166,12 +1236,12 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -1219,10 +1289,10 @@
       <c r="F5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
@@ -1285,10 +1355,10 @@
       <c r="F9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="11" t="s">
@@ -1329,10 +1399,10 @@
       <c r="F13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="F14" s="11" t="s">
@@ -1404,17 +1474,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1437,11 +1507,11 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -1493,9 +1563,9 @@
       <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -1547,9 +1617,9 @@
       <c r="F9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F10" s="11" t="s">
@@ -1638,12 +1708,12 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -1690,10 +1760,10 @@
       <c r="F5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1758,10 +1828,10 @@
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="F10" s="11" t="s">
@@ -1842,10 +1912,10 @@
       <c r="F17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="6:10" ht="30" x14ac:dyDescent="0.25">
       <c r="F18" s="11" t="s">
@@ -1930,13 +2000,13 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -1986,11 +2056,11 @@
       <c r="F5" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -2138,13 +2208,13 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -2194,11 +2264,11 @@
       <c r="F5" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -2280,11 +2350,11 @@
       <c r="F9" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="F10" s="5" t="s">
@@ -2364,11 +2434,11 @@
       <c r="F16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="6:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
@@ -2455,12 +2525,12 @@
       <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2507,10 +2577,10 @@
       <c r="F5" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -2564,10 +2634,10 @@
       <c r="F8" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" s="5" t="s">
@@ -2610,10 +2680,10 @@
       <c r="F12" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" s="5" t="s">
@@ -2654,10 +2724,10 @@
       <c r="F16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="6:10" ht="30" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
@@ -2710,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D105EB-477B-4D77-939A-88C707235F88}">
   <dimension ref="A3:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,13 +2809,13 @@
       <c r="F3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -2755,7 +2825,7 @@
       <c r="C4" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="25" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -2793,11 +2863,11 @@
       <c r="F5" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -2806,7 +2876,7 @@
       <c r="B6" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="25" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2874,17 +2944,17 @@
       <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="33"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F9" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F10" s="5" t="s">
@@ -2931,4 +3001,234 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EBC45A-46D5-40BB-9D81-DDC410A562AD}">
+  <dimension ref="A3:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="24"/>
+    <col min="2" max="2" width="22.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="24" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="21.5703125" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F9" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ЧЯ-для задач.xlsx
+++ b/ЧЯ-для задач.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Документы\HSE\Практика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5710D983-9DBE-44A2-B324-CE000B5530BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34679693-F972-4856-B282-6490962F91D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 3" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Задача 6" sheetId="3" r:id="rId3"/>
     <sheet name="Задача 6 Доп." sheetId="4" r:id="rId4"/>
     <sheet name="Задача 7" sheetId="5" r:id="rId5"/>
-    <sheet name="Задача 11" sheetId="6" r:id="rId6"/>
-    <sheet name="Задача 10" sheetId="7" r:id="rId7"/>
+    <sheet name="Задача 10" sheetId="7" r:id="rId6"/>
+    <sheet name="Задача 11" sheetId="6" r:id="rId7"/>
     <sheet name="Задача 12" sheetId="8" r:id="rId8"/>
+    <sheet name="Задача 8" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="215">
   <si>
     <t>Тесты</t>
   </si>
@@ -642,6 +643,78 @@
   </si>
   <si>
     <t>1.3, 2.1, 3.1, 3.2, 3.3</t>
+  </si>
+  <si>
+    <t>1. Количество чисел</t>
+  </si>
+  <si>
+    <t>1.1 0 чисел</t>
+  </si>
+  <si>
+    <t>1.2 1 число</t>
+  </si>
+  <si>
+    <t>1.3 &gt;1 чисел</t>
+  </si>
+  <si>
+    <t>2. Типы чисел</t>
+  </si>
+  <si>
+    <t>2.1 Все чётные</t>
+  </si>
+  <si>
+    <t>2.2 Все нечётные</t>
+  </si>
+  <si>
+    <t>2.3 Смешанный</t>
+  </si>
+  <si>
+    <t>2.4 Все нули</t>
+  </si>
+  <si>
+    <t>3. Вывод</t>
+  </si>
+  <si>
+    <t>3.1 Введите целые числа</t>
+  </si>
+  <si>
+    <t>Введите целые числа</t>
+  </si>
+  <si>
+    <t>1.1, 3.1</t>
+  </si>
+  <si>
+    <t>3.2 Разность</t>
+  </si>
+  <si>
+    <t>1.2, 2.2, 3.2</t>
+  </si>
+  <si>
+    <t>2 2 2</t>
+  </si>
+  <si>
+    <t>2 3 4</t>
+  </si>
+  <si>
+    <t>1.3, 2.3, 3.2</t>
+  </si>
+  <si>
+    <t>2.5 Вещественные</t>
+  </si>
+  <si>
+    <t>Т6</t>
+  </si>
+  <si>
+    <t>0 0 0</t>
+  </si>
+  <si>
+    <t>1.3, 2.4, 3.2</t>
+  </si>
+  <si>
+    <t>1.2 2 3 4 5</t>
+  </si>
+  <si>
+    <t>1.3, 2.5, 3.1</t>
   </si>
 </sst>
 </file>
@@ -752,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -859,8 +932,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1178,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD52A86A-E272-462E-91E5-9C389B92B574}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -1460,7 +1539,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1752,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,7 +2048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CF058D-2E6B-445B-AC54-AD1258B43EBE}">
   <dimension ref="A3:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -2172,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919006A6-65C3-4425-8636-9DC29672600E}">
   <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2491,6 +2570,233 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D105EB-477B-4D77-939A-88C707235F88}">
+  <dimension ref="A3:L12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="22"/>
+    <col min="3" max="3" width="30.28515625" style="22" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="22"/>
+    <col min="6" max="6" width="15.28515625" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G9:K9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF064FA-89BA-4DD1-9A4A-67E0AF5D3A50}">
   <dimension ref="A3:K19"/>
   <sheetViews>
@@ -2776,239 +3082,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D105EB-477B-4D77-939A-88C707235F88}">
-  <dimension ref="A3:L12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="22"/>
-    <col min="3" max="3" width="30.28515625" style="22" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="22"/>
-    <col min="6" max="6" width="15.28515625" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F9" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F10" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F11" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F12" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G9:K9"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EBC45A-46D5-40BB-9D81-DDC410A562AD}">
   <dimension ref="A3:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3040,8 +3119,8 @@
       <c r="G3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
@@ -3224,11 +3303,336 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01A2711-746A-4920-BB97-CFF2BA4798FE}">
+  <dimension ref="A3:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="16.7109375" style="24" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="20" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F17" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G15:L15"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ЧЯ-для задач.xlsx
+++ b/ЧЯ-для задач.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Документы\HSE\Практика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34679693-F972-4856-B282-6490962F91D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4336634-F09C-4DC1-BEB6-A4EF8B97DD59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 3" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Задача 6" sheetId="3" r:id="rId3"/>
     <sheet name="Задача 6 Доп." sheetId="4" r:id="rId4"/>
     <sheet name="Задача 7" sheetId="5" r:id="rId5"/>
-    <sheet name="Задача 10" sheetId="7" r:id="rId6"/>
-    <sheet name="Задача 11" sheetId="6" r:id="rId7"/>
-    <sheet name="Задача 12" sheetId="8" r:id="rId8"/>
-    <sheet name="Задача 8" sheetId="10" r:id="rId9"/>
+    <sheet name="Задача 8" sheetId="12" r:id="rId6"/>
+    <sheet name="Задача 9" sheetId="10" r:id="rId7"/>
+    <sheet name="Задача 10" sheetId="7" r:id="rId8"/>
+    <sheet name="Задача 11" sheetId="6" r:id="rId9"/>
+    <sheet name="Задача 12" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="237">
   <si>
     <t>Тесты</t>
   </si>
@@ -715,6 +716,93 @@
   </si>
   <si>
     <t>1.3, 2.5, 3.1</t>
+  </si>
+  <si>
+    <t>1. Количество пустых подграфов</t>
+  </si>
+  <si>
+    <t>1.1 0 подграфов</t>
+  </si>
+  <si>
+    <t>1.2 1 подграф</t>
+  </si>
+  <si>
+    <t>1.3 &gt;1 подграфов</t>
+  </si>
+  <si>
+    <t>2. Числа в файле матрицы смежности</t>
+  </si>
+  <si>
+    <t>2.1 Целые</t>
+  </si>
+  <si>
+    <t>2.2 Вещественные</t>
+  </si>
+  <si>
+    <t>Пустых подграфов нет</t>
+  </si>
+  <si>
+    <t>3.1 Пустых подграфов нет</t>
+  </si>
+  <si>
+    <t>0 1 0 1 0 1
+1 0 1 0 0 0
+0 1 0 1 0 1
+1 0 1 0 1 0
+0 0 0 1 0 1
+1 0 1 0 1 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 0 1 1 0 0 0 1 
+1 1 1 0 0 0 0 0 0 
+1 1 1 1 1 1 1 0 1 
+0 1 1 1 1 0 0 0 1 
+1 1 1 0 1 1 0 0 1 
+0 1 0 1 1 1 1 1 0 
+0 0 1 0 0 1 1 1 0 
+1 1 0 1 1 0 0 0 1 
+1 1 0 1 0 1 0 1 0 </t>
+  </si>
+  <si>
+    <t>Пустые подграфы:
+1 3 5</t>
+  </si>
+  <si>
+    <t>3.2 Пустые подграфы: *перечисление  множества вершин*</t>
+  </si>
+  <si>
+    <t>0 1 0 1 0 1
+1 0 1 0 0 0
+0 1 1 1 0 2
+1 0 1 0 1 0
+0 0 0 1 0 1
+1 0 1 0 1 0</t>
+  </si>
+  <si>
+    <t>2.3 Больше 1 или меньше 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пустые подграфы:                                                                                                        0 2 4                                                                                                                   1 3 5        </t>
+  </si>
+  <si>
+    <t>1.3, 2.1, 2.3, 3.2</t>
+  </si>
+  <si>
+    <t>1.2, 2.1, 2.3, 3.2</t>
+  </si>
+  <si>
+    <t>3.3 В строке *номер строки* введено не целое число</t>
+  </si>
+  <si>
+    <t>2.2, 3.3</t>
+  </si>
+  <si>
+    <t>В строке 2 введено не целое число</t>
+  </si>
+  <si>
+    <t>0 1 0
+1,2 0 0
+1 0 1</t>
   </si>
 </sst>
 </file>
@@ -1534,6 +1622,237 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EBC45A-46D5-40BB-9D81-DDC410A562AD}">
+  <dimension ref="A3:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="24"/>
+    <col min="2" max="2" width="22.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="24" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="21.5703125" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F9" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D16A06-A25E-471A-978A-7D823266F289}">
   <dimension ref="A1:M12"/>
@@ -2251,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919006A6-65C3-4425-8636-9DC29672600E}">
   <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,6 +2889,581 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4682B5DB-56DF-4CD5-A1A3-33FDDBFCAD64}">
+  <dimension ref="A3:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="24"/>
+    <col min="2" max="2" width="14.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="24" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="16.85546875" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G9:J9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01A2711-746A-4920-BB97-CFF2BA4798FE}">
+  <dimension ref="A3:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="16.7109375" style="24" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="20" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F17" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G15:L15"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D105EB-477B-4D77-939A-88C707235F88}">
   <dimension ref="A3:L12"/>
   <sheetViews>
@@ -2796,7 +3690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF064FA-89BA-4DD1-9A4A-67E0AF5D3A50}">
   <dimension ref="A3:K19"/>
   <sheetViews>
@@ -3080,559 +3974,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EBC45A-46D5-40BB-9D81-DDC410A562AD}">
-  <dimension ref="A3:K16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="22.5703125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="24" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="21.5703125" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F7" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="F9" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F10" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="F14" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F15" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G3:I3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01A2711-746A-4920-BB97-CFF2BA4798FE}">
-  <dimension ref="A3:L17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="24"/>
-    <col min="3" max="3" width="16.7109375" style="24" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="20" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="5">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="5">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F10" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F11" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F12" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F13" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F14" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F16" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F17" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="G15:L15"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ЧЯ-для задач.xlsx
+++ b/ЧЯ-для задач.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Документы\HSE\Практика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4336634-F09C-4DC1-BEB6-A4EF8B97DD59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BD7643-D7E8-44D4-BA0A-5590811F3CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4EA614F2-30FE-4B8B-8F91-3C3D4EAD280B}"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 3" sheetId="2" r:id="rId1"/>
-    <sheet name="Задача 5" sheetId="1" r:id="rId2"/>
-    <sheet name="Задача 6" sheetId="3" r:id="rId3"/>
-    <sheet name="Задача 6 Доп." sheetId="4" r:id="rId4"/>
-    <sheet name="Задача 7" sheetId="5" r:id="rId5"/>
-    <sheet name="Задача 8" sheetId="12" r:id="rId6"/>
-    <sheet name="Задача 9" sheetId="10" r:id="rId7"/>
-    <sheet name="Задача 10" sheetId="7" r:id="rId8"/>
-    <sheet name="Задача 11" sheetId="6" r:id="rId9"/>
-    <sheet name="Задача 12" sheetId="8" r:id="rId10"/>
+    <sheet name="Задача 4" sheetId="13" r:id="rId2"/>
+    <sheet name="Задача 5" sheetId="1" r:id="rId3"/>
+    <sheet name="Задача 6" sheetId="3" r:id="rId4"/>
+    <sheet name="Задача 6 Доп." sheetId="4" r:id="rId5"/>
+    <sheet name="Задача 7" sheetId="5" r:id="rId6"/>
+    <sheet name="Задача 8" sheetId="12" r:id="rId7"/>
+    <sheet name="Задача 9" sheetId="10" r:id="rId8"/>
+    <sheet name="Задача 10" sheetId="7" r:id="rId9"/>
+    <sheet name="Задача 11" sheetId="6" r:id="rId10"/>
+    <sheet name="Задача 12" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="248">
   <si>
     <t>Тесты</t>
   </si>
@@ -686,6 +687,9 @@
   </si>
   <si>
     <t>3.2 Разность</t>
+  </si>
+  <si>
+    <t>1.2, 2.2</t>
   </si>
   <si>
     <t>1.2, 2.2, 3.2</t>
@@ -803,6 +807,36 @@
     <t>0 1 0
 1,2 0 0
 1 0 1</t>
+  </si>
+  <si>
+    <t>1. Ввод</t>
+  </si>
+  <si>
+    <t>1.1 Ввод веществ. Числа</t>
+  </si>
+  <si>
+    <t>1.2 Ввод не веществ. Числа</t>
+  </si>
+  <si>
+    <t>1.3 Ввод отрицательного веществ. Числа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Вывод </t>
+  </si>
+  <si>
+    <t>2.1 Результат вычислений</t>
+  </si>
+  <si>
+    <t>1.1, 2.1</t>
+  </si>
+  <si>
+    <t>тест</t>
+  </si>
+  <si>
+    <t>2.2 Введите действительное положительное число.</t>
+  </si>
+  <si>
+    <t>Введите действительное положительное число.</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1380,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="A3" sqref="A3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,6 +1657,292 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF064FA-89BA-4DD1-9A4A-67E0AF5D3A50}">
+  <dimension ref="A3:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="13.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="18"/>
+    <col min="6" max="6" width="22" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="F8" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="F12" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="6:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F19" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G16:J16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EBC45A-46D5-40BB-9D81-DDC410A562AD}">
   <dimension ref="A3:K16"/>
   <sheetViews>
@@ -1854,6 +2174,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200D8B0F-F20F-4E0C-86A2-750E840C1A39}">
+  <dimension ref="A2:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="17.140625" style="24" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="15.85546875" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.1745594103947901</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-1E-3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F7" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G8:I8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D16A06-A25E-471A-978A-7D823266F289}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -2066,7 +2555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89262EDD-B82B-4031-80F4-0000B0C3BDB0}">
   <dimension ref="A2:J20"/>
   <sheetViews>
@@ -2363,7 +2852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CF058D-2E6B-445B-AC54-AD1258B43EBE}">
   <dimension ref="A3:K10"/>
   <sheetViews>
@@ -2566,7 +3055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919006A6-65C3-4425-8636-9DC29672600E}">
   <dimension ref="A2:K19"/>
   <sheetViews>
@@ -2888,12 +3377,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4682B5DB-56DF-4CD5-A1A3-33FDDBFCAD64}">
   <dimension ref="A3:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2935,10 +3424,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>203</v>
@@ -2965,16 +3454,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="33"/>
@@ -2986,16 +3475,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>21</v>
@@ -3009,16 +3498,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="7" t="s">
@@ -3029,7 +3518,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -3040,7 +3529,7 @@
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="F9" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="33"/>
@@ -3049,7 +3538,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>21</v>
@@ -3064,7 +3553,7 @@
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F11" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -3075,7 +3564,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="7" t="s">
@@ -3095,7 +3584,7 @@
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F14" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -3106,7 +3595,7 @@
     </row>
     <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="7" t="s">
@@ -3119,7 +3608,7 @@
     </row>
     <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="F16" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -3139,7 +3628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01A2711-746A-4920-BB97-CFF2BA4798FE}">
   <dimension ref="A3:L17"/>
   <sheetViews>
@@ -3211,7 +3700,7 @@
         <v>101</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3225,7 +3714,7 @@
         <v>-1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>191</v>
@@ -3242,7 +3731,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C6" s="5">
         <v>6</v>
@@ -3267,13 +3756,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>193</v>
@@ -3292,13 +3781,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>194</v>
@@ -3323,13 +3812,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>202</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>195</v>
@@ -3395,7 +3884,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F14" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -3463,7 +3952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D105EB-477B-4D77-939A-88C707235F88}">
   <dimension ref="A3:L12"/>
   <sheetViews>
@@ -3688,290 +4177,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF064FA-89BA-4DD1-9A4A-67E0AF5D3A50}">
-  <dimension ref="A3:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="13.85546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="18"/>
-    <col min="6" max="6" width="22" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
-    </row>
-    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="F8" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F10" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="F12" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F15" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
-    </row>
-    <row r="17" spans="6:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="F17" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="6:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="F19" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G16:J16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>